--- a/biology/Médecine/Embryon_surnuméraire/Embryon_surnuméraire.xlsx
+++ b/biology/Médecine/Embryon_surnuméraire/Embryon_surnuméraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embryon_surnum%C3%A9raire</t>
+          <t>Embryon_surnuméraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un embryon surnuméraire est un embryon conçu lors d'une fécondation in vitro (ou FIV) dans le cadre d'une procréation médicalement assistée. Ces embryons peuvent être congelés sur demande écrite des parents, afin d'être implantés plus tard dans l'utérus de la mère. S'ils ne font plus l'objet d'un projet parental et si les parents y consentent, les embryons surnuméraires peuvent être donnés à des personnes stériles, ou faire l'objet de recherche sur les cellules souches sous certaines conditions, selon la loi française de bioéthique de 2011.
 L'existence d'embryons surnuméraires s'explique parce que la technique de fécondation a un caractère aléatoire : on fait donc plusieurs essais de fécondation simultanément. Parmi les fécondations réussies, deux à trois embryons sont généralement choisis pour se développer et donner un enfant. Les autres embryons peuvent être conservés pour que les parents aient plus tard un nouvel enfant. C'est lorsqu'ils renoncent à ce projet que les embryons restants deviennent des « embryons surnuméraires ».
-En France, plus de 220 000 embryons sont congelés et stockés au 31 décembre 2015[1].
+En France, plus de 220 000 embryons sont congelés et stockés au 31 décembre 2015.
 </t>
         </is>
       </c>
